--- a/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.161263042628941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.1084051180662115</v>
+        <v>-0.1084051180662114</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.534159636385924</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.642081699645465</v>
+        <v>2.481263458554811</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3039230001313453</v>
+        <v>-0.07101497802786351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.417208003409453</v>
+        <v>-1.386461304321425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9484343651669366</v>
+        <v>0.9044415055380809</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.721460505183091</v>
+        <v>-2.759727706350935</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.799874535059966</v>
+        <v>-2.744975276533228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.513332213199551</v>
+        <v>2.611256893336402</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9475989570159039</v>
+        <v>-0.7174022859550261</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.395317271004947</v>
+        <v>-1.385415221935239</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.565397987494626</v>
+        <v>8.418324842281358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.209020842484793</v>
+        <v>3.340866239840534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5014615281115843</v>
+        <v>0.5035914054198294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.29405770463042</v>
+        <v>8.569094470319461</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.003734453868665</v>
+        <v>3.109442423920386</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.608428739416546</v>
+        <v>2.663201164355886</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.155486238667781</v>
+        <v>7.428995418885388</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.546171275432632</v>
+        <v>2.524001942004065</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.344585284818202</v>
+        <v>1.340418635729142</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>3.24588587440836</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3030068369764868</v>
+        <v>-0.3030068369764867</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.6429138829857</v>
@@ -783,22 +783,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>0.1190818003232157</v>
+        <v>0.07156758182717618</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6915896272773067</v>
+        <v>-0.6763076894998075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.707170423162259</v>
+        <v>-0.6508924368479185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7969391495404659</v>
+        <v>0.9911766214189389</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4747053379872394</v>
+        <v>-0.3931067639404819</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6413177407641639</v>
+        <v>-0.6549155226543648</v>
       </c>
     </row>
     <row r="9">
@@ -812,22 +812,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>5.666428232542713</v>
+        <v>5.942039911488727</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.236539729813432</v>
+        <v>2.400714142888919</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.979947439149189</v>
+        <v>2.345980790199963</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>8.192033547928244</v>
+        <v>9.084337307161041</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.016218221998052</v>
+        <v>3.658535840633621</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.762586549178787</v>
+        <v>1.926937977220883</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>0.6949212273161078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.315755604403305</v>
+        <v>0.3157556044033049</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.671895757331803</v>
@@ -857,7 +857,7 @@
         <v>-1.743720732007654</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.011706330607459</v>
+        <v>-1.01170633060746</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.512493784290765</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8169234740888357</v>
+        <v>-0.8701802794425371</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6782460558519711</v>
+        <v>-0.7156495465922427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.053449408290935</v>
+        <v>-1.292907011036836</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.470984835238536</v>
+        <v>-3.655264390982334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.564571169154095</v>
+        <v>-3.872671803401827</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.800474722902477</v>
+        <v>-2.975760671227969</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.763491898724453</v>
+        <v>-1.749129240490372</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.828915481490855</v>
+        <v>-1.701198418401388</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.64968336482242</v>
+        <v>-1.544008231717843</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.849237278469722</v>
+        <v>2.798158092819683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.228453445784464</v>
+        <v>2.286570978835293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.017096137017024</v>
+        <v>1.921020660826774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1044461553011045</v>
+        <v>0.1794118720236727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.01997786593111647</v>
+        <v>-0.146663413143049</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6076914626648248</v>
+        <v>0.4956887123909083</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8919223577348288</v>
+        <v>0.808987354778495</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5739768820375662</v>
+        <v>0.6043066526015309</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7008384628905475</v>
+        <v>0.8892429549627396</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>0.5760528013162877</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2617446313308571</v>
+        <v>0.261744631330857</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5409935090083806</v>
@@ -962,7 +962,7 @@
         <v>-0.5642346978886841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3273688299531345</v>
+        <v>-0.3273688299531346</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2374131617403416</v>
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6130289633303249</v>
+        <v>-0.5995136237463746</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.483915241017904</v>
+        <v>-0.5116260062828939</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6845449078316608</v>
+        <v>-0.7426170903548194</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8489154793683904</v>
+        <v>-0.8237124159300007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8388885263335161</v>
+        <v>-0.858933053883505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6583910151694664</v>
+        <v>-0.6859710461012016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6404178652378751</v>
+        <v>-0.6216594481541862</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6365714739239229</v>
+        <v>-0.6173662436948538</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5816850788341956</v>
+        <v>-0.5424698070273112</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.139128991368421</v>
+        <v>5.414896703621032</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.863820170405209</v>
+        <v>4.407732998271332</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.191486452750258</v>
+        <v>3.596884912136806</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1822419464425938</v>
+        <v>0.2237627009115158</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07091879775689477</v>
+        <v>0.003073317660627448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3507461593972973</v>
+        <v>0.3049510697545837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.653089642247783</v>
+        <v>0.6157938212653358</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4173591180420317</v>
+        <v>0.3966681259786666</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4482856783286635</v>
+        <v>0.5869832846168552</v>
       </c>
     </row>
     <row r="16">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.01296713179200379</v>
+        <v>-0.2856152322328186</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8163102890117263</v>
+        <v>0.5603954418952796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.363118211053216</v>
+        <v>2.203302208016377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.04136749545072149</v>
+        <v>-0.2458724469945042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3642566399543813</v>
+        <v>-0.5786876735799666</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.96585482959666</v>
+        <v>2.036969480614923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1745773101907523</v>
+        <v>0.176580143085757</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4756125425411267</v>
+        <v>0.3351379627744385</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.747272971864064</v>
+        <v>2.88393637518016</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.672003746853417</v>
+        <v>2.566760436120764</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.273652592049775</v>
+        <v>3.899498541587233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.041673700682499</v>
+        <v>6.557758883730519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.552325296829312</v>
+        <v>3.537085653090091</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.157329305313299</v>
+        <v>3.00823004537888</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.238665798093542</v>
+        <v>6.381251065486833</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.538518873084758</v>
+        <v>2.445975462363682</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.03201591809557</v>
+        <v>2.925745262537786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.827385245962224</v>
+        <v>5.855966782463147</v>
       </c>
     </row>
     <row r="19">
@@ -1199,22 +1199,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.4195999293615525</v>
+        <v>-0.4087077766111457</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5207814756473474</v>
+        <v>-0.710333899825084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6896908376629987</v>
+        <v>0.7672601886420367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.003319081212325712</v>
+        <v>-0.08969812598559369</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1100049468608748</v>
+        <v>0.0746363921288753</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.126378661742884</v>
+        <v>2.257245991620287</v>
       </c>
     </row>
     <row r="21">
@@ -1227,21 +1227,23 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
-      <c r="F21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>15.31943271332653</v>
+      </c>
       <c r="G21" s="6" t="n">
-        <v>10.38911264903552</v>
+        <v>11.72602592354671</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>19.04268721911438</v>
+        <v>24.50737989125555</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>12.91941028907287</v>
+        <v>11.79729001970319</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>14.13678341055899</v>
+        <v>14.76496588857768</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>33.52682806671036</v>
+        <v>31.78855255763727</v>
       </c>
     </row>
     <row r="22">
@@ -1291,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9801058830330374</v>
+        <v>-0.9233118057283871</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.48359313677399</v>
+        <v>-1.360677906773884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.501009825634225</v>
+        <v>-2.395676963881343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.118336764031165</v>
+        <v>-2.639912026575768</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.176379936196543</v>
+        <v>-3.04763859838391</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.030694808708689</v>
+        <v>-4.029580989125594</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.312064433360639</v>
+        <v>-1.108917998234505</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.827975015557419</v>
+        <v>-1.582788470152752</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.638978035308955</v>
+        <v>-2.574307112777267</v>
       </c>
     </row>
     <row r="24">
@@ -1326,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.22554518392465</v>
+        <v>4.118286129917244</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.844609399446603</v>
+        <v>2.917564036678113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.823634735504808</v>
+        <v>1.906830143925876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.235536479148106</v>
+        <v>2.423860902522267</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.005770325364388</v>
+        <v>1.998513483191019</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7426412874143702</v>
+        <v>0.7098077765879458</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.552322383733156</v>
+        <v>2.53892806233238</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.462190191536843</v>
+        <v>1.634848171026815</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3948911482230615</v>
+        <v>0.4544990278025862</v>
       </c>
     </row>
     <row r="25">
@@ -1396,31 +1398,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4374303295294337</v>
+        <v>-0.4492019947862638</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5914196963222346</v>
+        <v>-0.5368966113079855</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.956835477910458</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.667496176480871</v>
+        <v>-0.6140950865585694</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7032637619853427</v>
+        <v>-0.6863202468778117</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.811145187059493</v>
+        <v>-0.8027253917857669</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3872606006282861</v>
+        <v>-0.3400341675694948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5284104691861266</v>
+        <v>-0.4892471859140302</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7527761721077983</v>
+        <v>-0.7630649133782046</v>
       </c>
     </row>
     <row r="27">
@@ -1431,31 +1433,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.898249741647668</v>
+        <v>4.316069070218855</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.017821651929133</v>
+        <v>3.186888828826659</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.322824433991185</v>
+        <v>2.273890936171221</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.225853959213526</v>
+        <v>1.278017330249787</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.346144385795308</v>
+        <v>1.04139799599121</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5289718149207443</v>
+        <v>0.6046766240728781</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.443187243471129</v>
+        <v>1.661606055839881</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7604112374151338</v>
+        <v>1.002888618500764</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2991305651809028</v>
+        <v>0.3774750999324087</v>
       </c>
     </row>
     <row r="28">
@@ -1485,7 +1487,7 @@
         <v>0.5292612688273814</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.2380403226934176</v>
+        <v>-0.238040322693418</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.472450831578425</v>
@@ -1505,31 +1507,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.493354942735319</v>
+        <v>1.601778213472384</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3696361312827169</v>
+        <v>-0.4419351246945329</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.038946866150041</v>
+        <v>-1.104259983753093</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.4478079914641</v>
+        <v>-1.238047496910085</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.465297437847475</v>
+        <v>-2.561617329172451</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.322161034546411</v>
+        <v>-3.293185070444266</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.19803663409945</v>
+        <v>1.019137381384472</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.987117151620202</v>
+        <v>-0.8712431881168137</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.608766554133821</v>
+        <v>-1.55497318339449</v>
       </c>
     </row>
     <row r="30">
@@ -1540,31 +1542,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.137763507057574</v>
+        <v>9.545860523865668</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.998991300729075</v>
+        <v>3.970980525359868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.693644288125376</v>
+        <v>1.453091929895902</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.135207897272019</v>
+        <v>6.363470770726384</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.87371855433853</v>
+        <v>3.930494655769874</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.759677855316113</v>
+        <v>1.895948116654443</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.427988106769337</v>
+        <v>6.356390231164981</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.905985187134621</v>
+        <v>3.02339038242827</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.247615322165707</v>
+        <v>1.273196744947785</v>
       </c>
     </row>
     <row r="31">
@@ -1590,7 +1592,7 @@
         <v>0.2164554596518999</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.09735291527839948</v>
+        <v>-0.09735291527839963</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>2.389296618534118</v>
@@ -1613,22 +1615,20 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.4410971525042352</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>-0.7123861804077947</v>
-      </c>
+        <v>-0.4179700917112394</v>
+      </c>
+      <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>-0.7004668381738</v>
+        <v>-0.70586152443746</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2839282037175241</v>
+        <v>0.3236150979619799</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4867135925278941</v>
+        <v>-0.4947793823328372</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6627304521920749</v>
+        <v>-0.6371766844387897</v>
       </c>
     </row>
     <row r="33">
@@ -1642,22 +1642,20 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>5.263576921043608</v>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>3.621429217802262</v>
-      </c>
+        <v>6.51802902364535</v>
+      </c>
+      <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>1.878018111820116</v>
+        <v>2.173043325333599</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>9.281807946963829</v>
+        <v>9.981641255280005</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>4.791757766697329</v>
+        <v>4.543703074493306</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.835579849895928</v>
+        <v>2.47615346180826</v>
       </c>
     </row>
     <row r="34">
@@ -1678,7 +1676,7 @@
         <v>-0.06614053739238002</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.971068131100189</v>
+        <v>2.971068131100188</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-1.158562413109914</v>
@@ -1687,7 +1685,7 @@
         <v>-1.494001684109833</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.114817353053396</v>
+        <v>2.114817353053395</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.5975713379631918</v>
@@ -1707,31 +1705,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.070263216328786</v>
+        <v>-1.796800170752279</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.174248293618688</v>
+        <v>-2.060142745007753</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.7634039469225561</v>
+        <v>0.5880981705154715</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.844371693353501</v>
+        <v>-3.953429705703415</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.278425740761246</v>
+        <v>-4.289872084035649</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.099499671826431</v>
+        <v>-1.036559232057876</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.315786118145306</v>
+        <v>-2.203745906888665</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.544379522159653</v>
+        <v>-2.319647935083522</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5489892116437139</v>
+        <v>0.6633132924472566</v>
       </c>
     </row>
     <row r="36">
@@ -1742,31 +1740,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.036370976749024</v>
+        <v>2.08533957799996</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.754804636487055</v>
+        <v>1.795755522251367</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.732784475281576</v>
+        <v>5.667367093063164</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.177882317786391</v>
+        <v>1.170630320378639</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.5289041927229498</v>
+        <v>0.5373261694239714</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.646272223240245</v>
+        <v>4.720149504596342</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.08801978021896</v>
+        <v>0.9604132127101789</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.5951315238598502</v>
+        <v>0.733253673955637</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.381348150562901</v>
+        <v>4.473238874756531</v>
       </c>
     </row>
     <row r="37">
@@ -1792,7 +1790,7 @@
         <v>-0.5951816335768</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8425026961444507</v>
+        <v>0.8425026961444502</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3032197161825048</v>
@@ -1811,32 +1809,26 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="n">
-        <v>-0.8397064636108108</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>-0.8976422684680633</v>
-      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>0.04918537109322803</v>
+        <v>-0.09636552749287956</v>
       </c>
       <c r="F38" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G38" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.2853353492027583</v>
+        <v>-0.3295676690181683</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.7410985880776213</v>
+        <v>-0.7752930035970425</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7996918424735276</v>
+        <v>-0.781863753492082</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.09626319080091256</v>
+        <v>0.1288062233082707</v>
       </c>
     </row>
     <row r="39">
@@ -1846,32 +1838,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="n">
-        <v>4.68281257926641</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>4.964736750117033</v>
-      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>12.64967769496064</v>
+        <v>11.90748158996858</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.80767445801215</v>
-      </c>
-      <c r="G39" s="6" t="n">
-        <v>1.255793307766834</v>
-      </c>
+        <v>1.741842233532258</v>
+      </c>
+      <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="n">
-        <v>3.987564766461781</v>
+        <v>3.663846709877683</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.093769626057307</v>
+        <v>1.009438802973568</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7850624092380155</v>
+        <v>0.898502392737073</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.132319299347261</v>
+        <v>4.14745294693988</v>
       </c>
     </row>
     <row r="40">
@@ -1892,7 +1878,7 @@
         <v>1.482020530095545</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.037376881645841</v>
+        <v>3.037376881645842</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.9987332771791511</v>
@@ -1901,7 +1887,7 @@
         <v>1.867081132565447</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.116339256782847</v>
+        <v>6.116339256782848</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.3832102046302407</v>
@@ -1921,31 +1907,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.695340436932562</v>
+        <v>-1.834926842850645</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.4885375554322411</v>
+        <v>-0.2226354161543639</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.9470848084182986</v>
+        <v>1.161552680980613</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.1943848254664816</v>
+        <v>-0.4122880820698028</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.4312182960732948</v>
+        <v>0.4441382835625177</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.567234456542712</v>
+        <v>4.368590286843258</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5659809081932335</v>
+        <v>-0.6255688407137847</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.5702313137650109</v>
+        <v>0.5595235579624114</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.156045625486042</v>
+        <v>3.368065671867503</v>
       </c>
     </row>
     <row r="42">
@@ -1956,31 +1942,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.161964755183346</v>
+        <v>1.207851773922853</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.366867837845581</v>
+        <v>3.546767192080825</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.037051291753599</v>
+        <v>5.423787273359371</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.327280156544866</v>
+        <v>2.261854006542498</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.635251598669469</v>
+        <v>3.535476641460504</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.067528157906938</v>
+        <v>8.101622745712515</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.366836851696611</v>
+        <v>1.432346572467251</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.860609643256633</v>
+        <v>2.984452235506116</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.009319307589425</v>
+        <v>6.055777858938287</v>
       </c>
     </row>
     <row r="43">
@@ -1997,7 +1983,7 @@
         <v>0.8396476372330944</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>1.720844124808403</v>
+        <v>1.720844124808404</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>1.101822218836853</v>
@@ -2006,7 +1992,7 @@
         <v>2.059800672750258</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>6.74766591346748</v>
+        <v>6.747665913467481</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2886054517118517</v>
@@ -2026,31 +2012,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6863435710409828</v>
+        <v>-0.7022373666805722</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2503562040390955</v>
+        <v>-0.2043252904028519</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2769634810247585</v>
+        <v>0.3994543699712791</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3216387113186772</v>
+        <v>-0.3747586418012858</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09319616158899652</v>
+        <v>0.1246969665889469</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>2.674189968661049</v>
+        <v>2.444723818678353</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3453594235802852</v>
+        <v>-0.3647279108580121</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2228025711909466</v>
+        <v>0.2698846725054736</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.594080134071239</v>
+        <v>1.665553071972512</v>
       </c>
     </row>
     <row r="45">
@@ -2061,31 +2047,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.143510988615261</v>
+        <v>1.372356551985671</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.16511688692181</v>
+        <v>3.288341044721218</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.440595639889067</v>
+        <v>5.82450381787702</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>5.011685715950558</v>
+        <v>4.884505161551897</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>7.914117283915894</v>
+        <v>7.676206188465966</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>19.33158643907715</v>
+        <v>17.12911895042962</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.40217294725541</v>
+        <v>1.504663749293266</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>3.074879817406951</v>
+        <v>3.520760519931739</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>6.304144178762781</v>
+        <v>6.697179586271916</v>
       </c>
     </row>
     <row r="46">
@@ -2135,31 +2121,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.784435747600103</v>
+        <v>-1.953596360744537</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.155475995314109</v>
+        <v>-4.460057081436816</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.691306024904158</v>
+        <v>-4.761070418750793</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.7803348253599621</v>
+        <v>-0.9710741610789797</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.761946647959581</v>
+        <v>-1.835931120626226</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.001829398911245</v>
+        <v>-3.126983252164903</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.8806100811474633</v>
+        <v>-0.9453818616738739</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.466834618176684</v>
+        <v>-2.447086733440966</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.370650158076234</v>
+        <v>-3.375104634215851</v>
       </c>
     </row>
     <row r="48">
@@ -2170,31 +2156,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.286525572054261</v>
+        <v>2.175527128743104</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.8784417727202599</v>
+        <v>-1.117045692253504</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.467305555541759</v>
+        <v>-1.527732530270411</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.56649529639254</v>
+        <v>2.541849271058145</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.377965662595616</v>
+        <v>1.33658907723716</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.4477985921027918</v>
+        <v>-0.4130306515455051</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.921841306329726</v>
+        <v>1.769859325862472</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.1546085464689974</v>
+        <v>-0.2149580645818827</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.229282350073404</v>
+        <v>-1.336129070600255</v>
       </c>
     </row>
     <row r="49">
@@ -2220,7 +2206,7 @@
         <v>-0.06365215306472187</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.6212573960358438</v>
+        <v>-0.6212573960358437</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1422312598678801</v>
@@ -2240,31 +2226,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.38732540088942</v>
+        <v>-0.4284687457880597</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8570731088675468</v>
+        <v>-0.8530239513262523</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9437819168331933</v>
+        <v>-0.9420031082943382</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2777826734074492</v>
+        <v>-0.3102621472116264</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.566083938918026</v>
+        <v>-0.5701356185789128</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.8247878408157031</v>
+        <v>-0.8444140541645134</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2348506705421126</v>
+        <v>-0.2565678192270845</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6395629529719553</v>
+        <v>-0.6500423079417504</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.8540248841494933</v>
+        <v>-0.8532858774158911</v>
       </c>
     </row>
     <row r="51">
@@ -2275,31 +2261,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8538067239880741</v>
+        <v>0.7890069933863322</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2832219960301994</v>
+        <v>-0.2973596998664338</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3684371896769343</v>
+        <v>-0.3877092610166953</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.580658333293713</v>
+        <v>1.522877099998558</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.9613412677979452</v>
+        <v>0.8647172103434997</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1908426996273372</v>
+        <v>-0.1690539102820036</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7564813062195724</v>
+        <v>0.7211899829333658</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.06041797269550927</v>
+        <v>-0.07728222955940696</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4574924565416257</v>
+        <v>-0.4892047621278976</v>
       </c>
     </row>
     <row r="52">
@@ -2320,7 +2306,7 @@
         <v>0.2458133837111003</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.5353522049271957</v>
+        <v>0.535352204927195</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.6438244276749189</v>
@@ -2338,7 +2324,7 @@
         <v>0.1433551036977648</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.8346789633498903</v>
+        <v>0.8346789633498899</v>
       </c>
     </row>
     <row r="53">
@@ -2349,31 +2335,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.2442278982273361</v>
+        <v>0.3387237900406828</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.3853001125991237</v>
+        <v>-0.4627904090881425</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.1522092185805877</v>
+        <v>-0.1580554950857171</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.1082897991092018</v>
+        <v>-0.1393394904779375</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.7198455879921424</v>
+        <v>-0.6612142350419348</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.3724360241826316</v>
+        <v>0.3959689829758021</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.24382622159114</v>
+        <v>0.2977097565231057</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.3613774072634584</v>
+        <v>-0.320032348299369</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.281144782744027</v>
+        <v>0.3089926138443771</v>
       </c>
     </row>
     <row r="54">
@@ -2384,31 +2370,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.763553056312729</v>
+        <v>1.847977307904096</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.9185874536380743</v>
+        <v>0.9645159978249149</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.247188637287711</v>
+        <v>1.331306094589645</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.40012798759396</v>
+        <v>1.360850983610964</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7641089299570749</v>
+        <v>0.7717472757911789</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.83816025524868</v>
+        <v>1.807312644121682</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.363548777349338</v>
+        <v>1.366515928057718</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.657956891533657</v>
+        <v>0.6464866584431914</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.32482956072465</v>
+        <v>1.343091481020695</v>
       </c>
     </row>
     <row r="55">
@@ -2425,7 +2411,7 @@
         <v>0.137254143805365</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.2989231400351878</v>
+        <v>0.2989231400351874</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.2908973829292523</v>
@@ -2443,7 +2429,7 @@
         <v>0.07148542741093025</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4162208453476178</v>
+        <v>0.4162208453476177</v>
       </c>
     </row>
     <row r="56">
@@ -2454,31 +2440,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1149928892154521</v>
+        <v>0.1491215100696775</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1937069597568736</v>
+        <v>-0.2140139051265869</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.07722290277889127</v>
+        <v>-0.07884585676719462</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.04180153985005263</v>
+        <v>-0.06093165752120282</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2729638916758961</v>
+        <v>-0.2728732972506635</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.146231416655178</v>
+        <v>0.138418954084989</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.101617091515021</v>
+        <v>0.1332942254991813</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1610617881890763</v>
+        <v>-0.1388298921950992</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1214413955688149</v>
+        <v>0.1401831062177086</v>
       </c>
     </row>
     <row r="57">
@@ -2489,31 +2475,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.225195694100484</v>
+        <v>1.271629612124474</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6245478706307503</v>
+        <v>0.6359113216273018</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.819747134058512</v>
+        <v>0.9082761048755975</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7786840163633402</v>
+        <v>0.7116514369806137</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3969271861936943</v>
+        <v>0.4320510325706386</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.002257524683595</v>
+        <v>0.9601241738687248</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7709238270787139</v>
+        <v>0.7778795171115139</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3738362272805165</v>
+        <v>0.3635303607522217</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.7485272693284455</v>
+        <v>0.7734919848036066</v>
       </c>
     </row>
     <row r="58">
